--- a/FarmSys/src/Excel/ThongKeDT.xlsx
+++ b/FarmSys/src/Excel/ThongKeDT.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="41">
   <si>
     <t/>
   </si>
@@ -32,6 +32,51 @@
     <t>Thành tiền</t>
   </si>
   <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>Rau mầm</t>
+  </si>
+  <si>
+    <t>2021-01-17</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>Rau dền</t>
+  </si>
+  <si>
+    <t>2021-02-04</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>Rau muống</t>
+  </si>
+  <si>
+    <t>2021-03-12</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>Rau cải ngọt</t>
+  </si>
+  <si>
+    <t>2021-04-05</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>Rau xà lách</t>
+  </si>
+  <si>
+    <t>2021-05-24</t>
+  </si>
+  <si>
     <t>A6</t>
   </si>
   <si>
@@ -41,13 +86,13 @@
     <t>2021-06-24</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>Rau dền</t>
-  </si>
-  <si>
-    <t>2021-02-04</t>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>Rau mồng tơi</t>
+  </si>
+  <si>
+    <t>2021-07-24</t>
   </si>
   <si>
     <t>A8</t>
@@ -59,22 +104,37 @@
     <t>2021-08-24</t>
   </si>
   <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>Rau muống</t>
-  </si>
-  <si>
-    <t>2021-03-12</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>Rau cải ngọt</t>
-  </si>
-  <si>
-    <t>2021-04-05</t>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>Tía tô</t>
+  </si>
+  <si>
+    <t>2021-09-24</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>Cây cà chua</t>
+  </si>
+  <si>
+    <t>2021-10-24</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>Rau cải xanh</t>
+  </si>
+  <si>
+    <t>2021-11-16</t>
+  </si>
+  <si>
+    <t>Cần tây</t>
+  </si>
+  <si>
+    <t>2021-12-13</t>
   </si>
 </sst>
 </file>
@@ -119,7 +179,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A4:E9"/>
+  <dimension ref="A4:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -150,13 +210,13 @@
         <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>240.0</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5" t="n">
-        <v>176305.0</v>
+        <v>2700.0</v>
       </c>
     </row>
     <row r="6">
@@ -167,13 +227,13 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>53.0</v>
+        <v>250.0</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
       </c>
       <c r="E6" t="n">
-        <v>14685.0</v>
+        <v>3700.0</v>
       </c>
     </row>
     <row r="7">
@@ -184,13 +244,13 @@
         <v>13</v>
       </c>
       <c r="C7" t="n">
-        <v>77.0</v>
+        <v>300.0</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
       <c r="E7" t="n">
-        <v>130840.0</v>
+        <v>2800.0</v>
       </c>
     </row>
     <row r="8">
@@ -201,13 +261,13 @@
         <v>16</v>
       </c>
       <c r="C8" t="n">
-        <v>88.0</v>
+        <v>350.0</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
       </c>
       <c r="E8" t="n">
-        <v>4920.0</v>
+        <v>2100.0</v>
       </c>
     </row>
     <row r="9">
@@ -218,13 +278,132 @@
         <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v>88.0</v>
+        <v>500.0</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
       </c>
       <c r="E9" t="n">
-        <v>28588.0</v>
+        <v>1500.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="n">
+        <v>156.0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4100.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2000.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2140.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="n">
+        <v>345.0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2520.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="n">
+        <v>567.0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4023.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="n">
+        <v>412.0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4552.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
